--- a/AmazonAssignment/src/main/resources/configs/TestData/ProductSearchType.xlsx
+++ b/AmazonAssignment/src/main/resources/configs/TestData/ProductSearchType.xlsx
@@ -24,26 +24,28 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>65 inch TV</t>
   </si>
   <si>
-    <t>tv</t>
-  </si>
-  <si>
-    <t>watch</t>
-  </si>
-  <si>
-    <t>productType</t>
+    <t>productSearchType</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -59,7 +61,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -67,12 +69,29 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -353,7 +372,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -363,26 +382,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>3</v>
+      <c r="A1" s="2" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>2</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/AmazonAssignment/src/main/resources/configs/TestData/ProductSearchType.xlsx
+++ b/AmazonAssignment/src/main/resources/configs/TestData/ProductSearchType.xlsx
@@ -26,10 +26,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t>65 inch TV</t>
+    <t>productSearchType</t>
   </si>
   <si>
-    <t>productSearchType</t>
+    <t>1kg almond</t>
   </si>
 </sst>
 </file>
@@ -374,7 +374,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -383,12 +385,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
